--- a/UnitTest/input/anomal_test/anomal_test_2.xlsx
+++ b/UnitTest/input/anomal_test/anomal_test_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\UnitTest\input\anomal_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD6E3DB-EEA7-4498-93C5-D5A4F5B050E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7327AC11-058F-4D1A-9F72-9198FD2A3BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Титул" sheetId="2" r:id="rId1"/>
@@ -260,19 +260,7 @@
     <t>Без кафедры</t>
   </si>
   <si>
-    <t>77</t>
-  </si>
-  <si>
     <t>Для тестирования SPA-SFU-2</t>
-  </si>
-  <si>
-    <t>77.001</t>
-  </si>
-  <si>
-    <t>77.022</t>
-  </si>
-  <si>
-    <t>77.035</t>
   </si>
   <si>
     <t>ПРОГРАММИСТ C++</t>
@@ -398,6 +386,18 @@
   </si>
   <si>
     <t>УК-1; УК-2; УК-3; ПК-1</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>44.001</t>
+  </si>
+  <si>
+    <t>44.022</t>
+  </si>
+  <si>
+    <t>44.035</t>
   </si>
 </sst>
 </file>
@@ -944,26 +944,168 @@
     <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -984,10 +1126,6 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="17" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -996,137 +1134,8 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
@@ -1158,21 +1167,42 @@
     <xf numFmtId="49" fontId="25" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="49" fontId="25" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="49" fontId="22" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="49" fontId="26" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
@@ -1180,36 +1210,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="26" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1533,8 +1533,8 @@
   </sheetPr>
   <dimension ref="A1:AE58"/>
   <sheetViews>
-    <sheetView topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="R62" sqref="R62"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1599,166 +1599,166 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:31" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="68" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="61"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="50"/>
     </row>
     <row r="4" spans="1:31" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="68" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="61"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="1:31" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="68" t="s">
+      <c r="B5" s="50"/>
+      <c r="C5" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="61"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="50"/>
     </row>
     <row r="6" spans="1:31" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="68" t="s">
+      <c r="B6" s="50"/>
+      <c r="C6" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="61"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="50"/>
       <c r="S6" s="6"/>
     </row>
     <row r="7" spans="1:31" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="68" t="s">
+      <c r="B7" s="50"/>
+      <c r="C7" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="61"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="50"/>
     </row>
     <row r="8" spans="1:31" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="68" t="s">
+      <c r="B8" s="50"/>
+      <c r="C8" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="61"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="50"/>
     </row>
     <row r="9" spans="1:31" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="61"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="50"/>
     </row>
     <row r="10" spans="1:31" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="61"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="50"/>
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:31" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1766,35 +1766,35 @@
         <v>11</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="62"/>
-      <c r="AB12" s="62"/>
-      <c r="AC12" s="62"/>
-      <c r="AD12" s="62"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="52"/>
       <c r="AE12" s="6"/>
     </row>
     <row r="13" spans="1:31" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1835,59 +1835,59 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="T14" s="64" t="s">
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="T14" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="64"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="64"/>
-      <c r="X14" s="64"/>
-      <c r="Y14" s="64"/>
-      <c r="Z14" s="64"/>
-      <c r="AA14" s="64"/>
-      <c r="AB14" s="64"/>
-      <c r="AC14" s="64"/>
-      <c r="AD14" s="64"/>
-      <c r="AE14" s="64"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="54"/>
+      <c r="Z14" s="54"/>
+      <c r="AA14" s="54"/>
+      <c r="AB14" s="54"/>
+      <c r="AC14" s="54"/>
+      <c r="AD14" s="54"/>
+      <c r="AE14" s="54"/>
     </row>
     <row r="15" spans="1:31" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
-      <c r="AA15" s="65"/>
-      <c r="AB15" s="65"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="65"/>
-      <c r="AE15" s="65"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="55"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="55"/>
+      <c r="Y15" s="55"/>
+      <c r="Z15" s="55"/>
+      <c r="AA15" s="55"/>
+      <c r="AB15" s="55"/>
+      <c r="AC15" s="55"/>
+      <c r="AD15" s="55"/>
+      <c r="AE15" s="55"/>
     </row>
     <row r="16" spans="1:31" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
@@ -1920,28 +1920,28 @@
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="63"/>
-      <c r="V17" s="63"/>
-      <c r="W17" s="63"/>
-      <c r="X17" s="63"/>
-      <c r="Y17" s="66"/>
-      <c r="Z17" s="66"/>
-      <c r="AA17" s="66"/>
-      <c r="AB17" s="66"/>
-      <c r="AC17" s="66"/>
-      <c r="AD17" s="66"/>
-      <c r="AE17" s="66"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="56"/>
+      <c r="AC17" s="56"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="56"/>
     </row>
     <row r="18" spans="1:31" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
@@ -1974,28 +1974,28 @@
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="T19" s="53"/>
-      <c r="U19" s="53"/>
-      <c r="V19" s="53"/>
-      <c r="W19" s="53"/>
-      <c r="X19" s="53"/>
-      <c r="Y19" s="53"/>
-      <c r="Z19" s="53"/>
-      <c r="AA19" s="53"/>
-      <c r="AB19" s="53"/>
-      <c r="AC19" s="53"/>
-      <c r="AD19" s="53"/>
-      <c r="AE19" s="53"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="T19" s="58"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="58"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="58"/>
+      <c r="AA19" s="58"/>
+      <c r="AB19" s="58"/>
+      <c r="AC19" s="58"/>
+      <c r="AD19" s="58"/>
+      <c r="AE19" s="58"/>
     </row>
     <row r="20" spans="1:31" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
@@ -2004,29 +2004,29 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="54"/>
-      <c r="X20" s="54"/>
-      <c r="Y20" s="54"/>
-      <c r="Z20" s="54"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="59"/>
+      <c r="Z20" s="59"/>
       <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
@@ -2038,45 +2038,45 @@
         <v>20</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="55"/>
-      <c r="T21" s="55"/>
-      <c r="U21" s="55"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="55"/>
-      <c r="Y21" s="55"/>
-      <c r="Z21" s="55"/>
-      <c r="AA21" s="55"/>
-      <c r="AB21" s="55"/>
-      <c r="AC21" s="55"/>
-      <c r="AD21" s="55"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="60"/>
+      <c r="V21" s="60"/>
+      <c r="W21" s="60"/>
+      <c r="X21" s="60"/>
+      <c r="Y21" s="60"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="60"/>
+      <c r="AB21" s="60"/>
+      <c r="AC21" s="60"/>
+      <c r="AD21" s="60"/>
       <c r="AE21" s="6"/>
     </row>
     <row r="22" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -2091,17 +2091,17 @@
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
-      <c r="U22" s="56" t="s">
+      <c r="U22" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="56"/>
-      <c r="AB22" s="56"/>
-      <c r="AC22" s="56"/>
+      <c r="V22" s="61"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="61"/>
+      <c r="Z22" s="61"/>
+      <c r="AA22" s="61"/>
+      <c r="AB22" s="61"/>
+      <c r="AC22" s="61"/>
       <c r="AD22" s="6"/>
       <c r="AE22" s="6"/>
     </row>
@@ -2109,69 +2109,69 @@
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="57" t="s">
+      <c r="L23" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="57"/>
-      <c r="T23" s="58" t="s">
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="U23" s="58"/>
-      <c r="V23" s="58"/>
-      <c r="W23" s="58"/>
+      <c r="U23" s="63"/>
+      <c r="V23" s="63"/>
+      <c r="W23" s="63"/>
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
-      <c r="AA23" s="59"/>
-      <c r="AB23" s="59"/>
-      <c r="AC23" s="59"/>
-      <c r="AD23" s="59"/>
-      <c r="AE23" s="59"/>
+      <c r="AA23" s="64"/>
+      <c r="AB23" s="64"/>
+      <c r="AC23" s="64"/>
+      <c r="AD23" s="64"/>
+      <c r="AE23" s="64"/>
     </row>
     <row r="24" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="T24" s="6"/>
-      <c r="U24" s="47" t="s">
+      <c r="U24" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="V24" s="47"/>
-      <c r="W24" s="47"/>
-      <c r="X24" s="47"/>
-      <c r="Y24" s="47"/>
-      <c r="Z24" s="47"/>
-      <c r="AA24" s="47"/>
-      <c r="AB24" s="47"/>
-      <c r="AC24" s="47"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="67"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="67"/>
+      <c r="Z24" s="67"/>
+      <c r="AA24" s="67"/>
+      <c r="AB24" s="67"/>
+      <c r="AC24" s="67"/>
       <c r="AD24" s="6"/>
       <c r="AE24" s="6"/>
     </row>
@@ -2179,30 +2179,30 @@
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="48"/>
-      <c r="X25" s="48"/>
+      <c r="H25" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="68"/>
+      <c r="U25" s="68"/>
+      <c r="V25" s="68"/>
+      <c r="W25" s="68"/>
+      <c r="X25" s="68"/>
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
       <c r="AA25" s="6"/>
@@ -2250,29 +2250,29 @@
         <v>26</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
+      <c r="D27" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="48"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="48"/>
-      <c r="W27" s="48"/>
-      <c r="X27" s="48"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="68"/>
+      <c r="S27" s="68"/>
+      <c r="T27" s="68"/>
+      <c r="U27" s="68"/>
+      <c r="V27" s="68"/>
+      <c r="W27" s="68"/>
+      <c r="X27" s="68"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
       <c r="AA27" s="6"/>
@@ -2320,34 +2320,34 @@
         <v>28</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="49"/>
-      <c r="S29" s="49"/>
-      <c r="T29" s="49"/>
-      <c r="U29" s="49"/>
-      <c r="V29" s="49"/>
-      <c r="W29" s="49"/>
-      <c r="X29" s="49"/>
-      <c r="Y29" s="49"/>
-      <c r="Z29" s="49"/>
-      <c r="AA29" s="49"/>
-      <c r="AB29" s="49"/>
-      <c r="AC29" s="49"/>
+      <c r="D29" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="69"/>
+      <c r="Q29" s="69"/>
+      <c r="R29" s="69"/>
+      <c r="S29" s="69"/>
+      <c r="T29" s="69"/>
+      <c r="U29" s="69"/>
+      <c r="V29" s="69"/>
+      <c r="W29" s="69"/>
+      <c r="X29" s="69"/>
+      <c r="Y29" s="69"/>
+      <c r="Z29" s="69"/>
+      <c r="AA29" s="69"/>
+      <c r="AB29" s="69"/>
+      <c r="AC29" s="69"/>
       <c r="AE29" s="6"/>
     </row>
     <row r="30" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2357,47 +2357,47 @@
       <c r="C30" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="35"/>
-      <c r="Y30" s="35"/>
-      <c r="Z30" s="35"/>
-      <c r="AA30" s="35"/>
-      <c r="AB30" s="35"/>
-      <c r="AC30" s="35"/>
-      <c r="AD30" s="35"/>
-      <c r="AE30" s="35"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="70"/>
+      <c r="R30" s="70"/>
+      <c r="S30" s="70"/>
+      <c r="T30" s="70"/>
+      <c r="U30" s="70"/>
+      <c r="V30" s="70"/>
+      <c r="W30" s="70"/>
+      <c r="X30" s="70"/>
+      <c r="Y30" s="70"/>
+      <c r="Z30" s="70"/>
+      <c r="AA30" s="70"/>
+      <c r="AB30" s="70"/>
+      <c r="AC30" s="70"/>
+      <c r="AD30" s="70"/>
+      <c r="AE30" s="70"/>
     </row>
     <row r="31" spans="1:31" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
@@ -2427,45 +2427,45 @@
         <v>31</v>
       </c>
       <c r="C32" s="11"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="34"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="34"/>
-      <c r="AA32" s="34"/>
-      <c r="AB32" s="34"/>
-      <c r="AC32" s="34"/>
-      <c r="AD32" s="34"/>
-      <c r="AE32" s="34"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="73"/>
+      <c r="T32" s="73"/>
+      <c r="U32" s="73"/>
+      <c r="V32" s="73"/>
+      <c r="W32" s="73"/>
+      <c r="X32" s="73"/>
+      <c r="Y32" s="73"/>
+      <c r="Z32" s="73"/>
+      <c r="AA32" s="73"/>
+      <c r="AB32" s="73"/>
+      <c r="AC32" s="73"/>
+      <c r="AD32" s="73"/>
+      <c r="AE32" s="73"/>
     </row>
     <row r="33" spans="1:31" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C33" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -2497,45 +2497,45 @@
         <v>33</v>
       </c>
       <c r="C34" s="11"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="34"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="34"/>
-      <c r="V34" s="34"/>
-      <c r="W34" s="34"/>
-      <c r="X34" s="34"/>
-      <c r="Y34" s="34"/>
-      <c r="Z34" s="34"/>
-      <c r="AA34" s="34"/>
-      <c r="AB34" s="34"/>
-      <c r="AC34" s="34"/>
-      <c r="AD34" s="34"/>
-      <c r="AE34" s="34"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="73"/>
+      <c r="Q34" s="73"/>
+      <c r="R34" s="73"/>
+      <c r="S34" s="73"/>
+      <c r="T34" s="73"/>
+      <c r="U34" s="73"/>
+      <c r="V34" s="73"/>
+      <c r="W34" s="73"/>
+      <c r="X34" s="73"/>
+      <c r="Y34" s="73"/>
+      <c r="Z34" s="73"/>
+      <c r="AA34" s="73"/>
+      <c r="AB34" s="73"/>
+      <c r="AC34" s="73"/>
+      <c r="AD34" s="73"/>
+      <c r="AE34" s="73"/>
     </row>
     <row r="35" spans="1:31" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="C35" s="46" t="s">
+      <c r="C35" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -2567,34 +2567,34 @@
         <v>35</v>
       </c>
       <c r="C36" s="11"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="34"/>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="34"/>
-      <c r="AA36" s="34"/>
-      <c r="AB36" s="34"/>
-      <c r="AC36" s="34"/>
-      <c r="AD36" s="34"/>
-      <c r="AE36" s="34"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="73"/>
+      <c r="P36" s="73"/>
+      <c r="Q36" s="73"/>
+      <c r="R36" s="73"/>
+      <c r="S36" s="73"/>
+      <c r="T36" s="73"/>
+      <c r="U36" s="73"/>
+      <c r="V36" s="73"/>
+      <c r="W36" s="73"/>
+      <c r="X36" s="73"/>
+      <c r="Y36" s="73"/>
+      <c r="Z36" s="73"/>
+      <c r="AA36" s="73"/>
+      <c r="AB36" s="73"/>
+      <c r="AC36" s="73"/>
+      <c r="AD36" s="73"/>
+      <c r="AE36" s="73"/>
     </row>
     <row r="37" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
@@ -2603,36 +2603,36 @@
       <c r="C37" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="35"/>
-      <c r="V37" s="35"/>
-      <c r="W37" s="35"/>
-      <c r="X37" s="35"/>
-      <c r="Y37" s="35"/>
-      <c r="Z37" s="35"/>
-      <c r="AA37" s="35"/>
-      <c r="AB37" s="35"/>
-      <c r="AC37" s="35"/>
-      <c r="AD37" s="35"/>
-      <c r="AE37" s="35"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="70"/>
+      <c r="O37" s="70"/>
+      <c r="P37" s="70"/>
+      <c r="Q37" s="70"/>
+      <c r="R37" s="70"/>
+      <c r="S37" s="70"/>
+      <c r="T37" s="70"/>
+      <c r="U37" s="70"/>
+      <c r="V37" s="70"/>
+      <c r="W37" s="70"/>
+      <c r="X37" s="70"/>
+      <c r="Y37" s="70"/>
+      <c r="Z37" s="70"/>
+      <c r="AA37" s="70"/>
+      <c r="AB37" s="70"/>
+      <c r="AC37" s="70"/>
+      <c r="AD37" s="70"/>
+      <c r="AE37" s="70"/>
     </row>
     <row r="38" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
@@ -2641,36 +2641,36 @@
       <c r="C38" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="35"/>
-      <c r="S38" s="35"/>
-      <c r="T38" s="35"/>
-      <c r="U38" s="35"/>
-      <c r="V38" s="35"/>
-      <c r="W38" s="35"/>
-      <c r="X38" s="35"/>
-      <c r="Y38" s="35"/>
-      <c r="Z38" s="35"/>
-      <c r="AA38" s="35"/>
-      <c r="AB38" s="35"/>
-      <c r="AC38" s="35"/>
-      <c r="AD38" s="35"/>
-      <c r="AE38" s="35"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="70"/>
+      <c r="P38" s="70"/>
+      <c r="Q38" s="70"/>
+      <c r="R38" s="70"/>
+      <c r="S38" s="70"/>
+      <c r="T38" s="70"/>
+      <c r="U38" s="70"/>
+      <c r="V38" s="70"/>
+      <c r="W38" s="70"/>
+      <c r="X38" s="70"/>
+      <c r="Y38" s="70"/>
+      <c r="Z38" s="70"/>
+      <c r="AA38" s="70"/>
+      <c r="AB38" s="70"/>
+      <c r="AC38" s="70"/>
+      <c r="AD38" s="70"/>
+      <c r="AE38" s="70"/>
     </row>
     <row r="39" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
@@ -2710,34 +2710,34 @@
       <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="C40" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
+      <c r="C40" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="74"/>
       <c r="O40" s="6"/>
-      <c r="P40" s="39" t="s">
+      <c r="P40" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="Q40" s="39"/>
-      <c r="R40" s="39"/>
-      <c r="S40" s="39"/>
-      <c r="T40" s="39"/>
-      <c r="U40" s="39"/>
-      <c r="V40" s="39"/>
-      <c r="W40" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="X40" s="41"/>
+      <c r="Q40" s="75"/>
+      <c r="R40" s="75"/>
+      <c r="S40" s="75"/>
+      <c r="T40" s="75"/>
+      <c r="U40" s="75"/>
+      <c r="V40" s="75"/>
+      <c r="W40" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="X40" s="77"/>
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
       <c r="AA40" s="6"/>
@@ -2750,33 +2750,33 @@
       <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42"/>
-      <c r="N41" s="42"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="78"/>
+      <c r="K41" s="78"/>
+      <c r="L41" s="78"/>
+      <c r="M41" s="78"/>
+      <c r="N41" s="78"/>
       <c r="O41" s="6"/>
-      <c r="P41" s="43" t="s">
+      <c r="P41" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="Q41" s="43"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="43"/>
-      <c r="T41" s="43"/>
-      <c r="U41" s="43"/>
-      <c r="V41" s="43"/>
-      <c r="W41" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="X41" s="44"/>
-      <c r="Y41" s="44"/>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="48"/>
+      <c r="S41" s="48"/>
+      <c r="T41" s="48"/>
+      <c r="U41" s="48"/>
+      <c r="V41" s="48"/>
+      <c r="W41" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="X41" s="79"/>
+      <c r="Y41" s="79"/>
       <c r="Z41" s="6"/>
       <c r="AA41" s="6"/>
       <c r="AB41" s="6"/>
@@ -2803,23 +2803,23 @@
       <c r="M42" s="37"/>
       <c r="N42" s="37"/>
       <c r="O42" s="6"/>
-      <c r="P42" s="43" t="s">
+      <c r="P42" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="Q42" s="43"/>
-      <c r="R42" s="43"/>
-      <c r="S42" s="43"/>
-      <c r="T42" s="43"/>
-      <c r="U42" s="43"/>
-      <c r="V42" s="43"/>
-      <c r="W42" s="45" t="s">
+      <c r="Q42" s="48"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="48"/>
+      <c r="U42" s="48"/>
+      <c r="V42" s="48"/>
+      <c r="W42" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="X42" s="45"/>
-      <c r="Y42" s="45"/>
-      <c r="Z42" s="45"/>
-      <c r="AA42" s="45"/>
-      <c r="AB42" s="45"/>
+      <c r="X42" s="80"/>
+      <c r="Y42" s="80"/>
+      <c r="Z42" s="80"/>
+      <c r="AA42" s="80"/>
+      <c r="AB42" s="80"/>
       <c r="AC42" s="6"/>
       <c r="AD42" s="6"/>
       <c r="AE42" s="6"/>
@@ -2829,7 +2829,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D43" s="37"/>
       <c r="E43" s="37"/>
@@ -2843,11 +2843,11 @@
       <c r="M43" s="37"/>
       <c r="N43" s="37"/>
       <c r="O43" s="6"/>
-      <c r="P43" s="69"/>
-      <c r="Q43" s="69"/>
-      <c r="R43" s="69"/>
-      <c r="S43" s="69"/>
-      <c r="T43" s="69"/>
+      <c r="P43" s="46"/>
+      <c r="Q43" s="46"/>
+      <c r="R43" s="46"/>
+      <c r="S43" s="46"/>
+      <c r="T43" s="46"/>
       <c r="U43" s="6"/>
       <c r="X43" s="6"/>
       <c r="Y43" s="6"/>
@@ -2862,18 +2862,18 @@
       <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="70"/>
-      <c r="J44" s="70"/>
-      <c r="K44" s="70"/>
-      <c r="L44" s="70"/>
-      <c r="M44" s="70"/>
-      <c r="N44" s="70"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
       <c r="AC44" s="6"/>
       <c r="AD44" s="6"/>
       <c r="AE44" s="6"/>
@@ -2882,35 +2882,35 @@
       <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="43"/>
-      <c r="O45" s="43"/>
-      <c r="P45" s="43"/>
-      <c r="Q45" s="43"/>
-      <c r="R45" s="43"/>
-      <c r="S45" s="43"/>
-      <c r="T45" s="43"/>
-      <c r="U45" s="43"/>
-      <c r="V45" s="43"/>
-      <c r="W45" s="43"/>
-      <c r="X45" s="43"/>
-      <c r="Y45" s="43"/>
-      <c r="Z45" s="43"/>
-      <c r="AA45" s="43"/>
-      <c r="AB45" s="43"/>
-      <c r="AC45" s="43"/>
-      <c r="AD45" s="43"/>
-      <c r="AE45" s="43"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="48"/>
+      <c r="O45" s="48"/>
+      <c r="P45" s="48"/>
+      <c r="Q45" s="48"/>
+      <c r="R45" s="48"/>
+      <c r="S45" s="48"/>
+      <c r="T45" s="48"/>
+      <c r="U45" s="48"/>
+      <c r="V45" s="48"/>
+      <c r="W45" s="48"/>
+      <c r="X45" s="48"/>
+      <c r="Y45" s="48"/>
+      <c r="Z45" s="48"/>
+      <c r="AA45" s="48"/>
+      <c r="AB45" s="48"/>
+      <c r="AC45" s="48"/>
+      <c r="AD45" s="48"/>
+      <c r="AE45" s="48"/>
     </row>
     <row r="46" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
@@ -2919,46 +2919,46 @@
       <c r="C46" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="71" t="s">
+      <c r="D46" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="71"/>
-      <c r="K46" s="71"/>
-      <c r="L46" s="71"/>
-      <c r="M46" s="71"/>
-      <c r="N46" s="71"/>
-      <c r="O46" s="71"/>
-      <c r="P46" s="71"/>
-      <c r="Q46" s="71"/>
-      <c r="R46" s="71"/>
-      <c r="S46" s="71"/>
-      <c r="T46" s="71"/>
-      <c r="U46" s="71"/>
-      <c r="V46" s="71"/>
-      <c r="W46" s="71"/>
-      <c r="X46" s="71"/>
-      <c r="Y46" s="71"/>
-      <c r="Z46" s="71"/>
-      <c r="AA46" s="71"/>
-      <c r="AB46" s="71"/>
-      <c r="AC46" s="71"/>
-      <c r="AD46" s="71"/>
-      <c r="AE46" s="71"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="49"/>
+      <c r="P46" s="49"/>
+      <c r="Q46" s="49"/>
+      <c r="R46" s="49"/>
+      <c r="S46" s="49"/>
+      <c r="T46" s="49"/>
+      <c r="U46" s="49"/>
+      <c r="V46" s="49"/>
+      <c r="W46" s="49"/>
+      <c r="X46" s="49"/>
+      <c r="Y46" s="49"/>
+      <c r="Z46" s="49"/>
+      <c r="AA46" s="49"/>
+      <c r="AB46" s="49"/>
+      <c r="AC46" s="49"/>
+      <c r="AD46" s="49"/>
+      <c r="AE46" s="49"/>
     </row>
     <row r="47" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46</v>
       </c>
       <c r="C47" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="36" t="s">
         <v>78</v>
-      </c>
-      <c r="D47" s="36" t="s">
-        <v>79</v>
       </c>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -2993,7 +2993,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="D48" s="36" t="s">
         <v>28</v>
@@ -3031,10 +3031,10 @@
         <v>48</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="D49" s="36" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E49" s="36"/>
       <c r="F49" s="36"/>
@@ -3069,10 +3069,10 @@
         <v>49</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D50" s="36" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E50" s="36"/>
       <c r="F50" s="36"/>
@@ -3129,12 +3129,12 @@
       <c r="M52" s="37"/>
       <c r="N52" s="37"/>
       <c r="O52" s="6"/>
-      <c r="P52" s="76" t="s">
+      <c r="P52" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="Q52" s="76"/>
-      <c r="R52" s="76"/>
-      <c r="S52" s="76"/>
+      <c r="Q52" s="38"/>
+      <c r="R52" s="38"/>
+      <c r="S52" s="38"/>
       <c r="T52" s="6"/>
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
@@ -3155,40 +3155,40 @@
       <c r="C53" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="75" t="s">
-        <v>101</v>
-      </c>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="75"/>
-      <c r="J53" s="75"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="75"/>
-      <c r="M53" s="75"/>
-      <c r="N53" s="75"/>
+      <c r="D53" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
       <c r="O53" s="6"/>
-      <c r="P53" s="77" t="s">
+      <c r="P53" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="Q53" s="77"/>
-      <c r="R53" s="77"/>
-      <c r="S53" s="77"/>
-      <c r="T53" s="77"/>
-      <c r="U53" s="77"/>
-      <c r="V53" s="77"/>
-      <c r="W53" s="77"/>
-      <c r="X53" s="78"/>
-      <c r="Y53" s="78"/>
-      <c r="Z53" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA53" s="46"/>
-      <c r="AB53" s="46"/>
-      <c r="AC53" s="46"/>
-      <c r="AD53" s="46"/>
-      <c r="AE53" s="46"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="39"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39"/>
+      <c r="V53" s="39"/>
+      <c r="W53" s="39"/>
+      <c r="X53" s="40"/>
+      <c r="Y53" s="40"/>
+      <c r="Z53" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA53" s="41"/>
+      <c r="AB53" s="41"/>
+      <c r="AC53" s="41"/>
+      <c r="AD53" s="41"/>
+      <c r="AE53" s="41"/>
     </row>
     <row r="54" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
@@ -3197,35 +3197,35 @@
       <c r="C54" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D54" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="33"/>
-      <c r="N54" s="33"/>
-      <c r="P54" s="77"/>
-      <c r="Q54" s="77"/>
-      <c r="R54" s="77"/>
-      <c r="S54" s="77"/>
-      <c r="T54" s="77"/>
-      <c r="U54" s="77"/>
-      <c r="V54" s="77"/>
-      <c r="W54" s="77"/>
-      <c r="X54" s="78"/>
-      <c r="Y54" s="78"/>
-      <c r="Z54" s="46"/>
-      <c r="AA54" s="46"/>
-      <c r="AB54" s="46"/>
-      <c r="AC54" s="46"/>
-      <c r="AD54" s="46"/>
-      <c r="AE54" s="46"/>
+      <c r="D54" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="42"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="39"/>
+      <c r="R54" s="39"/>
+      <c r="S54" s="39"/>
+      <c r="T54" s="39"/>
+      <c r="U54" s="39"/>
+      <c r="V54" s="39"/>
+      <c r="W54" s="39"/>
+      <c r="X54" s="40"/>
+      <c r="Y54" s="40"/>
+      <c r="Z54" s="41"/>
+      <c r="AA54" s="41"/>
+      <c r="AB54" s="41"/>
+      <c r="AC54" s="41"/>
+      <c r="AD54" s="41"/>
+      <c r="AE54" s="41"/>
     </row>
     <row r="55" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
@@ -3234,39 +3234,39 @@
       <c r="C55" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D55" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="33"/>
-      <c r="P55" s="72" t="s">
+      <c r="D55" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42"/>
+      <c r="P55" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="Q55" s="72"/>
-      <c r="R55" s="72"/>
-      <c r="S55" s="72"/>
-      <c r="T55" s="72"/>
-      <c r="U55" s="72"/>
-      <c r="V55" s="72"/>
-      <c r="W55" s="72"/>
-      <c r="X55" s="73"/>
-      <c r="Y55" s="73"/>
-      <c r="Z55" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA55" s="74"/>
-      <c r="AB55" s="74"/>
-      <c r="AC55" s="74"/>
-      <c r="AD55" s="74"/>
-      <c r="AE55" s="74"/>
+      <c r="Q55" s="43"/>
+      <c r="R55" s="43"/>
+      <c r="S55" s="43"/>
+      <c r="T55" s="43"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="44"/>
+      <c r="Y55" s="44"/>
+      <c r="Z55" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA55" s="45"/>
+      <c r="AB55" s="45"/>
+      <c r="AC55" s="45"/>
+      <c r="AD55" s="45"/>
+      <c r="AE55" s="45"/>
     </row>
     <row r="56" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
@@ -3275,35 +3275,35 @@
       <c r="C56" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D56" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
-      <c r="N56" s="33"/>
-      <c r="P56" s="72"/>
-      <c r="Q56" s="72"/>
-      <c r="R56" s="72"/>
-      <c r="S56" s="72"/>
-      <c r="T56" s="72"/>
-      <c r="U56" s="72"/>
-      <c r="V56" s="72"/>
-      <c r="W56" s="72"/>
-      <c r="X56" s="73"/>
-      <c r="Y56" s="73"/>
-      <c r="Z56" s="74"/>
-      <c r="AA56" s="74"/>
-      <c r="AB56" s="74"/>
-      <c r="AC56" s="74"/>
-      <c r="AD56" s="74"/>
-      <c r="AE56" s="74"/>
+      <c r="D56" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="42"/>
+      <c r="P56" s="43"/>
+      <c r="Q56" s="43"/>
+      <c r="R56" s="43"/>
+      <c r="S56" s="43"/>
+      <c r="T56" s="43"/>
+      <c r="U56" s="43"/>
+      <c r="V56" s="43"/>
+      <c r="W56" s="43"/>
+      <c r="X56" s="44"/>
+      <c r="Y56" s="44"/>
+      <c r="Z56" s="45"/>
+      <c r="AA56" s="45"/>
+      <c r="AB56" s="45"/>
+      <c r="AC56" s="45"/>
+      <c r="AD56" s="45"/>
+      <c r="AE56" s="45"/>
     </row>
     <row r="57" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
@@ -3312,129 +3312,64 @@
       <c r="C57" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="33"/>
-      <c r="N57" s="33"/>
-      <c r="P57" s="72" t="s">
+      <c r="D57" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="42"/>
+      <c r="P57" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="Q57" s="72"/>
-      <c r="R57" s="72"/>
-      <c r="S57" s="72"/>
-      <c r="T57" s="72"/>
-      <c r="U57" s="72"/>
-      <c r="V57" s="72"/>
-      <c r="W57" s="72"/>
-      <c r="X57" s="73"/>
-      <c r="Y57" s="73"/>
-      <c r="Z57" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA57" s="74"/>
-      <c r="AB57" s="74"/>
-      <c r="AC57" s="74"/>
-      <c r="AD57" s="74"/>
-      <c r="AE57" s="74"/>
+      <c r="Q57" s="43"/>
+      <c r="R57" s="43"/>
+      <c r="S57" s="43"/>
+      <c r="T57" s="43"/>
+      <c r="U57" s="43"/>
+      <c r="V57" s="43"/>
+      <c r="W57" s="43"/>
+      <c r="X57" s="44"/>
+      <c r="Y57" s="44"/>
+      <c r="Z57" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA57" s="45"/>
+      <c r="AB57" s="45"/>
+      <c r="AC57" s="45"/>
+      <c r="AD57" s="45"/>
+      <c r="AE57" s="45"/>
     </row>
     <row r="58" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="P58" s="72"/>
-      <c r="Q58" s="72"/>
-      <c r="R58" s="72"/>
-      <c r="S58" s="72"/>
-      <c r="T58" s="72"/>
-      <c r="U58" s="72"/>
-      <c r="V58" s="72"/>
-      <c r="W58" s="72"/>
-      <c r="X58" s="73"/>
-      <c r="Y58" s="73"/>
-      <c r="Z58" s="74"/>
-      <c r="AA58" s="74"/>
-      <c r="AB58" s="74"/>
-      <c r="AC58" s="74"/>
-      <c r="AD58" s="74"/>
-      <c r="AE58" s="74"/>
+      <c r="P58" s="43"/>
+      <c r="Q58" s="43"/>
+      <c r="R58" s="43"/>
+      <c r="S58" s="43"/>
+      <c r="T58" s="43"/>
+      <c r="U58" s="43"/>
+      <c r="V58" s="43"/>
+      <c r="W58" s="43"/>
+      <c r="X58" s="44"/>
+      <c r="Y58" s="44"/>
+      <c r="Z58" s="45"/>
+      <c r="AA58" s="45"/>
+      <c r="AB58" s="45"/>
+      <c r="AC58" s="45"/>
+      <c r="AD58" s="45"/>
+      <c r="AE58" s="45"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="81">
-    <mergeCell ref="D53:N53"/>
-    <mergeCell ref="D49:AE49"/>
-    <mergeCell ref="D48:AE48"/>
-    <mergeCell ref="D50:AE50"/>
-    <mergeCell ref="D52:N52"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="P53:W54"/>
-    <mergeCell ref="X53:Y54"/>
-    <mergeCell ref="Z53:AE54"/>
-    <mergeCell ref="D54:N54"/>
-    <mergeCell ref="P55:W56"/>
-    <mergeCell ref="X55:Y56"/>
-    <mergeCell ref="Z55:AE56"/>
-    <mergeCell ref="P57:W58"/>
-    <mergeCell ref="X57:Y58"/>
-    <mergeCell ref="Z57:AE58"/>
-    <mergeCell ref="C43:N43"/>
-    <mergeCell ref="P43:T43"/>
-    <mergeCell ref="C44:N44"/>
-    <mergeCell ref="C45:AE45"/>
-    <mergeCell ref="D46:AE46"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="K3:K10"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="D12:AD12"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="T14:AE14"/>
-    <mergeCell ref="T15:AE15"/>
-    <mergeCell ref="Y17:AE17"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="T19:AE19"/>
-    <mergeCell ref="F20:Z20"/>
-    <mergeCell ref="D21:AD21"/>
-    <mergeCell ref="U22:AC22"/>
-    <mergeCell ref="L23:S23"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="AA23:AE23"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="U24:AC24"/>
-    <mergeCell ref="H25:X25"/>
-    <mergeCell ref="H27:X27"/>
-    <mergeCell ref="D29:AC29"/>
-    <mergeCell ref="D30:AE30"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="D32:AE32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="D34:AE34"/>
-    <mergeCell ref="C35:F35"/>
     <mergeCell ref="D55:N55"/>
     <mergeCell ref="D56:N56"/>
     <mergeCell ref="D57:N57"/>
@@ -3451,6 +3386,71 @@
     <mergeCell ref="W41:Y41"/>
     <mergeCell ref="P42:V42"/>
     <mergeCell ref="W42:AB42"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="D32:AE32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="D34:AE34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="U24:AC24"/>
+    <mergeCell ref="H25:X25"/>
+    <mergeCell ref="H27:X27"/>
+    <mergeCell ref="D29:AC29"/>
+    <mergeCell ref="D30:AE30"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="T19:AE19"/>
+    <mergeCell ref="F20:Z20"/>
+    <mergeCell ref="D21:AD21"/>
+    <mergeCell ref="U22:AC22"/>
+    <mergeCell ref="L23:S23"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="AA23:AE23"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="D12:AD12"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="T14:AE14"/>
+    <mergeCell ref="T15:AE15"/>
+    <mergeCell ref="Y17:AE17"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="K3:K10"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C43:N43"/>
+    <mergeCell ref="P43:T43"/>
+    <mergeCell ref="C44:N44"/>
+    <mergeCell ref="C45:AE45"/>
+    <mergeCell ref="D46:AE46"/>
+    <mergeCell ref="P55:W56"/>
+    <mergeCell ref="X55:Y56"/>
+    <mergeCell ref="Z55:AE56"/>
+    <mergeCell ref="P57:W58"/>
+    <mergeCell ref="X57:Y58"/>
+    <mergeCell ref="Z57:AE58"/>
+    <mergeCell ref="D53:N53"/>
+    <mergeCell ref="D49:AE49"/>
+    <mergeCell ref="D48:AE48"/>
+    <mergeCell ref="D50:AE50"/>
+    <mergeCell ref="D52:N52"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="P53:W54"/>
+    <mergeCell ref="X53:Y54"/>
+    <mergeCell ref="Z53:AE54"/>
+    <mergeCell ref="D54:N54"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.2" bottom="0.1" header="6.6666669999999997E-2" footer="0"/>
@@ -3478,47 +3478,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="90" t="s">
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="81" t="s">
+      <c r="I1" s="92"/>
+      <c r="J1" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81" t="s">
+      <c r="K1" s="84"/>
+      <c r="L1" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81" t="s">
+      <c r="M1" s="84"/>
+      <c r="N1" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="81"/>
-      <c r="P1" s="79" t="s">
+      <c r="O1" s="84"/>
+      <c r="P1" s="82" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="81"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="88"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="91"/>
       <c r="H2" s="18" t="s">
         <v>45</v>
       </c>
@@ -3543,7 +3543,7 @@
       <c r="O2" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="80"/>
+      <c r="P2" s="83"/>
     </row>
     <row r="3" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
@@ -3596,15 +3596,15 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
       <c r="J4" s="24"/>
@@ -3616,15 +3616,15 @@
       <c r="P4" s="21"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
       <c r="J5" s="24"/>
@@ -3640,13 +3640,13 @@
         <v>31</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
@@ -3662,7 +3662,7 @@
       <c r="N6" s="25"/>
       <c r="O6" s="25"/>
       <c r="P6" s="29" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3670,13 +3670,13 @@
         <v>31</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
@@ -3698,7 +3698,7 @@
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
       <c r="P7" s="29" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -3706,11 +3706,11 @@
         <v>41</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="29" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
@@ -3726,7 +3726,7 @@
       <c r="N8" s="25"/>
       <c r="O8" s="25"/>
       <c r="P8" s="29" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -3734,11 +3734,11 @@
         <v>31</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="29" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
@@ -3754,7 +3754,7 @@
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
       <c r="P9" s="29" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -3762,11 +3762,11 @@
         <v>31</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="29" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
@@ -3784,7 +3784,7 @@
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
       <c r="P10" s="29" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3813,7 +3813,7 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -3825,178 +3825,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
     </row>
     <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
-      <c r="B3" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
+      <c r="B3" s="93" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="91" t="s">
+      <c r="A4" s="103"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="91"/>
+      <c r="D4" s="102"/>
     </row>
     <row r="5" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
-      <c r="B5" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
+      <c r="B5" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
     </row>
     <row r="6" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="92"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="91" t="s">
+      <c r="A6" s="103"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="91"/>
+      <c r="D6" s="102"/>
     </row>
     <row r="7" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
-      <c r="B7" s="99" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
+      <c r="B7" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
     </row>
     <row r="8" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="92"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="91" t="s">
+      <c r="A8" s="103"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="91"/>
+      <c r="D8" s="102"/>
     </row>
     <row r="9" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
     </row>
     <row r="10" spans="1:4" s="17" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="32"/>
-      <c r="B10" s="100" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
+      <c r="B10" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
     </row>
     <row r="11" spans="1:4" s="17" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="92"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="91" t="s">
+      <c r="A11" s="103"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="91"/>
+      <c r="D11" s="102"/>
     </row>
     <row r="12" spans="1:4" s="17" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="32"/>
-      <c r="B12" s="101" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
+      <c r="B12" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
     </row>
     <row r="13" spans="1:4" s="17" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="92"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="91" t="s">
+      <c r="A13" s="103"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="91"/>
+      <c r="D13" s="102"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
     </row>
     <row r="15" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
-      <c r="B15" s="102" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
+      <c r="B15" s="98" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
     </row>
     <row r="16" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="92"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="91"/>
+      <c r="A16" s="103"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="102" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="102"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="105" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
+      <c r="A17" s="99" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="104"/>
-      <c r="B18" s="105" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="106"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="105" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="105"/>
+      <c r="A19" s="100"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="99"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="106"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="103" t="s">
+      <c r="A20" s="100"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="33" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="27">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -4013,7 +4004,16 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <pageMargins left="0.1" right="0.1" top="0.2" bottom="0.1" header="6.6666669999999997E-2" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" errors="blank"/>
@@ -4041,12 +4041,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
       <c r="E1" s="23" t="s">
         <v>55</v>
       </c>
@@ -4055,98 +4055,98 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
       <c r="E2" s="27" t="s">
         <v>72</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="28"/>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
       <c r="E3" s="27" t="s">
         <v>74</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="94"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="96" t="s">
+      <c r="A4" s="104"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="96"/>
+      <c r="D4" s="106"/>
       <c r="E4" s="27" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="94"/>
-      <c r="B5" s="94"/>
-      <c r="C5" s="96" t="s">
+      <c r="A5" s="104"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="96"/>
+      <c r="D5" s="106"/>
       <c r="E5" s="27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="94"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
       <c r="D6" s="26" t="s">
         <v>65</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="94"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
+      <c r="A7" s="104"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
       <c r="D7" s="26" t="s">
         <v>66</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F7" s="27" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="94"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
       <c r="D8" s="26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F8" s="27" t="s">
         <v>69</v>

--- a/UnitTest/input/anomal_test/anomal_test_2.xlsx
+++ b/UnitTest/input/anomal_test/anomal_test_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\UnitTest\input\anomal_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7327AC11-058F-4D1A-9F72-9198FD2A3BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DBFFFA-4DE2-40B8-90FF-78FB91324A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Титул" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="120">
   <si>
     <t xml:space="preserve"> Документ подписан простой электронной подписью</t>
   </si>
@@ -355,9 +355,6 @@
     <t>эксплуатационный</t>
   </si>
   <si>
-    <t>УК-1; УК-2; УК-3</t>
-  </si>
-  <si>
     <t>ИД-1УК-1</t>
   </si>
   <si>
@@ -398,6 +395,18 @@
   </si>
   <si>
     <t>44.035</t>
+  </si>
+  <si>
+    <t>ПК-1.1</t>
+  </si>
+  <si>
+    <t>УК-1.1; УК-1.2; УК-1.3</t>
+  </si>
+  <si>
+    <t>УК-2.1; УК-2.2</t>
+  </si>
+  <si>
+    <t>УК-3.1</t>
   </si>
 </sst>
 </file>
@@ -653,11 +662,15 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FFFFFFFF"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="6">
@@ -950,18 +963,178 @@
     <xf numFmtId="49" fontId="34" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -974,166 +1147,6 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="23" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
@@ -1170,6 +1183,24 @@
     <xf numFmtId="49" fontId="25" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="49" fontId="22" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="49" fontId="33" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
@@ -1183,24 +1214,6 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="33" fillId="5" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="26" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1533,7 +1546,7 @@
   </sheetPr>
   <dimension ref="A1:AE58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+    <sheetView topLeftCell="B12" workbookViewId="0">
       <selection activeCell="C47" sqref="C47:C50"/>
     </sheetView>
   </sheetViews>
@@ -1599,166 +1612,166 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:31" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="50"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="63"/>
     </row>
     <row r="4" spans="1:31" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51" t="s">
+      <c r="B4" s="63"/>
+      <c r="C4" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="50"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="63"/>
     </row>
     <row r="5" spans="1:31" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51" t="s">
+      <c r="B5" s="63"/>
+      <c r="C5" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="50"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="63"/>
     </row>
     <row r="6" spans="1:31" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="50"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="63"/>
       <c r="S6" s="6"/>
     </row>
     <row r="7" spans="1:31" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="50"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" spans="1:31" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51" t="s">
+      <c r="B8" s="63"/>
+      <c r="C8" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="50"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="63"/>
     </row>
     <row r="9" spans="1:31" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="50"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="63"/>
     </row>
     <row r="10" spans="1:31" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="50"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="63"/>
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:31" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1766,35 +1779,35 @@
         <v>11</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
-      <c r="AA12" s="52"/>
-      <c r="AB12" s="52"/>
-      <c r="AC12" s="52"/>
-      <c r="AD12" s="52"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="64"/>
+      <c r="Y12" s="64"/>
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="64"/>
+      <c r="AB12" s="64"/>
+      <c r="AC12" s="64"/>
+      <c r="AD12" s="64"/>
       <c r="AE12" s="6"/>
     </row>
     <row r="13" spans="1:31" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1835,59 +1848,59 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="T14" s="54" t="s">
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="T14" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="54"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="54"/>
-      <c r="Y14" s="54"/>
-      <c r="Z14" s="54"/>
-      <c r="AA14" s="54"/>
-      <c r="AB14" s="54"/>
-      <c r="AC14" s="54"/>
-      <c r="AD14" s="54"/>
-      <c r="AE14" s="54"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="66"/>
+      <c r="AA14" s="66"/>
+      <c r="AB14" s="66"/>
+      <c r="AC14" s="66"/>
+      <c r="AD14" s="66"/>
+      <c r="AE14" s="66"/>
     </row>
     <row r="15" spans="1:31" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="T15" s="55"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="55"/>
-      <c r="X15" s="55"/>
-      <c r="Y15" s="55"/>
-      <c r="Z15" s="55"/>
-      <c r="AA15" s="55"/>
-      <c r="AB15" s="55"/>
-      <c r="AC15" s="55"/>
-      <c r="AD15" s="55"/>
-      <c r="AE15" s="55"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="67"/>
+      <c r="Z15" s="67"/>
+      <c r="AA15" s="67"/>
+      <c r="AB15" s="67"/>
+      <c r="AC15" s="67"/>
+      <c r="AD15" s="67"/>
+      <c r="AE15" s="67"/>
     </row>
     <row r="16" spans="1:31" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
@@ -1920,28 +1933,28 @@
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="T17" s="53"/>
-      <c r="U17" s="53"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="53"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="56"/>
-      <c r="AB17" s="56"/>
-      <c r="AC17" s="56"/>
-      <c r="AD17" s="56"/>
-      <c r="AE17" s="56"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="68"/>
+      <c r="Z17" s="68"/>
+      <c r="AA17" s="68"/>
+      <c r="AB17" s="68"/>
+      <c r="AC17" s="68"/>
+      <c r="AD17" s="68"/>
+      <c r="AE17" s="68"/>
     </row>
     <row r="18" spans="1:31" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
@@ -1974,28 +1987,28 @@
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="T19" s="58"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="58"/>
-      <c r="Y19" s="58"/>
-      <c r="Z19" s="58"/>
-      <c r="AA19" s="58"/>
-      <c r="AB19" s="58"/>
-      <c r="AC19" s="58"/>
-      <c r="AD19" s="58"/>
-      <c r="AE19" s="58"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="55"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="55"/>
+      <c r="AA19" s="55"/>
+      <c r="AB19" s="55"/>
+      <c r="AC19" s="55"/>
+      <c r="AD19" s="55"/>
+      <c r="AE19" s="55"/>
     </row>
     <row r="20" spans="1:31" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
@@ -2004,29 +2017,29 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="59" t="s">
+      <c r="F20" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="59"/>
-      <c r="Z20" s="59"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
       <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
@@ -2038,45 +2051,45 @@
         <v>20</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="60"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="60"/>
-      <c r="U21" s="60"/>
-      <c r="V21" s="60"/>
-      <c r="W21" s="60"/>
-      <c r="X21" s="60"/>
-      <c r="Y21" s="60"/>
-      <c r="Z21" s="60"/>
-      <c r="AA21" s="60"/>
-      <c r="AB21" s="60"/>
-      <c r="AC21" s="60"/>
-      <c r="AD21" s="60"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="57"/>
+      <c r="AB21" s="57"/>
+      <c r="AC21" s="57"/>
+      <c r="AD21" s="57"/>
       <c r="AE21" s="6"/>
     </row>
     <row r="22" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -2091,17 +2104,17 @@
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
-      <c r="U22" s="61" t="s">
+      <c r="U22" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="V22" s="61"/>
-      <c r="W22" s="61"/>
-      <c r="X22" s="61"/>
-      <c r="Y22" s="61"/>
-      <c r="Z22" s="61"/>
-      <c r="AA22" s="61"/>
-      <c r="AB22" s="61"/>
-      <c r="AC22" s="61"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="58"/>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="58"/>
+      <c r="AB22" s="58"/>
+      <c r="AC22" s="58"/>
       <c r="AD22" s="6"/>
       <c r="AE22" s="6"/>
     </row>
@@ -2109,69 +2122,69 @@
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="62" t="s">
+      <c r="L23" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="62"/>
-      <c r="T23" s="63" t="s">
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="U23" s="63"/>
-      <c r="V23" s="63"/>
-      <c r="W23" s="63"/>
+      <c r="U23" s="60"/>
+      <c r="V23" s="60"/>
+      <c r="W23" s="60"/>
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
-      <c r="AA23" s="64"/>
-      <c r="AB23" s="64"/>
-      <c r="AC23" s="64"/>
-      <c r="AD23" s="64"/>
-      <c r="AE23" s="64"/>
+      <c r="AA23" s="61"/>
+      <c r="AB23" s="61"/>
+      <c r="AC23" s="61"/>
+      <c r="AD23" s="61"/>
+      <c r="AE23" s="61"/>
     </row>
     <row r="24" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="T24" s="6"/>
-      <c r="U24" s="67" t="s">
+      <c r="U24" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="V24" s="67"/>
-      <c r="W24" s="67"/>
-      <c r="X24" s="67"/>
-      <c r="Y24" s="67"/>
-      <c r="Z24" s="67"/>
-      <c r="AA24" s="67"/>
-      <c r="AB24" s="67"/>
-      <c r="AC24" s="67"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="49"/>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="49"/>
+      <c r="AA24" s="49"/>
+      <c r="AB24" s="49"/>
+      <c r="AC24" s="49"/>
       <c r="AD24" s="6"/>
       <c r="AE24" s="6"/>
     </row>
@@ -2179,30 +2192,30 @@
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="68" t="s">
+      <c r="H25" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="68"/>
-      <c r="R25" s="68"/>
-      <c r="S25" s="68"/>
-      <c r="T25" s="68"/>
-      <c r="U25" s="68"/>
-      <c r="V25" s="68"/>
-      <c r="W25" s="68"/>
-      <c r="X25" s="68"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
       <c r="AA25" s="6"/>
@@ -2250,29 +2263,29 @@
         <v>26</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="71" t="s">
+      <c r="D27" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="68"/>
-      <c r="R27" s="68"/>
-      <c r="S27" s="68"/>
-      <c r="T27" s="68"/>
-      <c r="U27" s="68"/>
-      <c r="V27" s="68"/>
-      <c r="W27" s="68"/>
-      <c r="X27" s="68"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="50"/>
+      <c r="W27" s="50"/>
+      <c r="X27" s="50"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
       <c r="AA27" s="6"/>
@@ -2320,34 +2333,34 @@
         <v>28</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="69" t="s">
+      <c r="D29" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="69"/>
-      <c r="S29" s="69"/>
-      <c r="T29" s="69"/>
-      <c r="U29" s="69"/>
-      <c r="V29" s="69"/>
-      <c r="W29" s="69"/>
-      <c r="X29" s="69"/>
-      <c r="Y29" s="69"/>
-      <c r="Z29" s="69"/>
-      <c r="AA29" s="69"/>
-      <c r="AB29" s="69"/>
-      <c r="AC29" s="69"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="51"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="51"/>
+      <c r="Z29" s="51"/>
+      <c r="AA29" s="51"/>
+      <c r="AB29" s="51"/>
+      <c r="AC29" s="51"/>
       <c r="AE29" s="6"/>
     </row>
     <row r="30" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2357,47 +2370,47 @@
       <c r="C30" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="70" t="s">
+      <c r="D30" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="70"/>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="70"/>
-      <c r="R30" s="70"/>
-      <c r="S30" s="70"/>
-      <c r="T30" s="70"/>
-      <c r="U30" s="70"/>
-      <c r="V30" s="70"/>
-      <c r="W30" s="70"/>
-      <c r="X30" s="70"/>
-      <c r="Y30" s="70"/>
-      <c r="Z30" s="70"/>
-      <c r="AA30" s="70"/>
-      <c r="AB30" s="70"/>
-      <c r="AC30" s="70"/>
-      <c r="AD30" s="70"/>
-      <c r="AE30" s="70"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="37"/>
+      <c r="AA30" s="37"/>
+      <c r="AB30" s="37"/>
+      <c r="AC30" s="37"/>
+      <c r="AD30" s="37"/>
+      <c r="AE30" s="37"/>
     </row>
     <row r="31" spans="1:31" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
@@ -2427,45 +2440,45 @@
         <v>31</v>
       </c>
       <c r="C32" s="11"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="73"/>
-      <c r="Q32" s="73"/>
-      <c r="R32" s="73"/>
-      <c r="S32" s="73"/>
-      <c r="T32" s="73"/>
-      <c r="U32" s="73"/>
-      <c r="V32" s="73"/>
-      <c r="W32" s="73"/>
-      <c r="X32" s="73"/>
-      <c r="Y32" s="73"/>
-      <c r="Z32" s="73"/>
-      <c r="AA32" s="73"/>
-      <c r="AB32" s="73"/>
-      <c r="AC32" s="73"/>
-      <c r="AD32" s="73"/>
-      <c r="AE32" s="73"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="36"/>
+      <c r="Z32" s="36"/>
+      <c r="AA32" s="36"/>
+      <c r="AB32" s="36"/>
+      <c r="AC32" s="36"/>
+      <c r="AD32" s="36"/>
+      <c r="AE32" s="36"/>
     </row>
     <row r="33" spans="1:31" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -2497,45 +2510,45 @@
         <v>33</v>
       </c>
       <c r="C34" s="11"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="73"/>
-      <c r="L34" s="73"/>
-      <c r="M34" s="73"/>
-      <c r="N34" s="73"/>
-      <c r="O34" s="73"/>
-      <c r="P34" s="73"/>
-      <c r="Q34" s="73"/>
-      <c r="R34" s="73"/>
-      <c r="S34" s="73"/>
-      <c r="T34" s="73"/>
-      <c r="U34" s="73"/>
-      <c r="V34" s="73"/>
-      <c r="W34" s="73"/>
-      <c r="X34" s="73"/>
-      <c r="Y34" s="73"/>
-      <c r="Z34" s="73"/>
-      <c r="AA34" s="73"/>
-      <c r="AB34" s="73"/>
-      <c r="AC34" s="73"/>
-      <c r="AD34" s="73"/>
-      <c r="AE34" s="73"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="36"/>
+      <c r="Z34" s="36"/>
+      <c r="AA34" s="36"/>
+      <c r="AB34" s="36"/>
+      <c r="AC34" s="36"/>
+      <c r="AD34" s="36"/>
+      <c r="AE34" s="36"/>
     </row>
     <row r="35" spans="1:31" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -2567,34 +2580,34 @@
         <v>35</v>
       </c>
       <c r="C36" s="11"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="73"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="73"/>
-      <c r="L36" s="73"/>
-      <c r="M36" s="73"/>
-      <c r="N36" s="73"/>
-      <c r="O36" s="73"/>
-      <c r="P36" s="73"/>
-      <c r="Q36" s="73"/>
-      <c r="R36" s="73"/>
-      <c r="S36" s="73"/>
-      <c r="T36" s="73"/>
-      <c r="U36" s="73"/>
-      <c r="V36" s="73"/>
-      <c r="W36" s="73"/>
-      <c r="X36" s="73"/>
-      <c r="Y36" s="73"/>
-      <c r="Z36" s="73"/>
-      <c r="AA36" s="73"/>
-      <c r="AB36" s="73"/>
-      <c r="AC36" s="73"/>
-      <c r="AD36" s="73"/>
-      <c r="AE36" s="73"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="36"/>
+      <c r="Z36" s="36"/>
+      <c r="AA36" s="36"/>
+      <c r="AB36" s="36"/>
+      <c r="AC36" s="36"/>
+      <c r="AD36" s="36"/>
+      <c r="AE36" s="36"/>
     </row>
     <row r="37" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
@@ -2603,36 +2616,36 @@
       <c r="C37" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="70" t="s">
+      <c r="D37" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="70"/>
-      <c r="K37" s="70"/>
-      <c r="L37" s="70"/>
-      <c r="M37" s="70"/>
-      <c r="N37" s="70"/>
-      <c r="O37" s="70"/>
-      <c r="P37" s="70"/>
-      <c r="Q37" s="70"/>
-      <c r="R37" s="70"/>
-      <c r="S37" s="70"/>
-      <c r="T37" s="70"/>
-      <c r="U37" s="70"/>
-      <c r="V37" s="70"/>
-      <c r="W37" s="70"/>
-      <c r="X37" s="70"/>
-      <c r="Y37" s="70"/>
-      <c r="Z37" s="70"/>
-      <c r="AA37" s="70"/>
-      <c r="AB37" s="70"/>
-      <c r="AC37" s="70"/>
-      <c r="AD37" s="70"/>
-      <c r="AE37" s="70"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="37"/>
+      <c r="AA37" s="37"/>
+      <c r="AB37" s="37"/>
+      <c r="AC37" s="37"/>
+      <c r="AD37" s="37"/>
+      <c r="AE37" s="37"/>
     </row>
     <row r="38" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
@@ -2641,36 +2654,36 @@
       <c r="C38" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="70" t="s">
+      <c r="D38" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="70"/>
-      <c r="K38" s="70"/>
-      <c r="L38" s="70"/>
-      <c r="M38" s="70"/>
-      <c r="N38" s="70"/>
-      <c r="O38" s="70"/>
-      <c r="P38" s="70"/>
-      <c r="Q38" s="70"/>
-      <c r="R38" s="70"/>
-      <c r="S38" s="70"/>
-      <c r="T38" s="70"/>
-      <c r="U38" s="70"/>
-      <c r="V38" s="70"/>
-      <c r="W38" s="70"/>
-      <c r="X38" s="70"/>
-      <c r="Y38" s="70"/>
-      <c r="Z38" s="70"/>
-      <c r="AA38" s="70"/>
-      <c r="AB38" s="70"/>
-      <c r="AC38" s="70"/>
-      <c r="AD38" s="70"/>
-      <c r="AE38" s="70"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
+      <c r="AA38" s="37"/>
+      <c r="AB38" s="37"/>
+      <c r="AC38" s="37"/>
+      <c r="AD38" s="37"/>
+      <c r="AE38" s="37"/>
     </row>
     <row r="39" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
@@ -2710,34 +2723,34 @@
       <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="C40" s="74" t="s">
+      <c r="C40" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="74"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="74"/>
-      <c r="L40" s="74"/>
-      <c r="M40" s="74"/>
-      <c r="N40" s="74"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
       <c r="O40" s="6"/>
-      <c r="P40" s="75" t="s">
+      <c r="P40" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="Q40" s="75"/>
-      <c r="R40" s="75"/>
-      <c r="S40" s="75"/>
-      <c r="T40" s="75"/>
-      <c r="U40" s="75"/>
-      <c r="V40" s="75"/>
-      <c r="W40" s="76" t="s">
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="41"/>
+      <c r="T40" s="41"/>
+      <c r="U40" s="41"/>
+      <c r="V40" s="41"/>
+      <c r="W40" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="X40" s="77"/>
+      <c r="X40" s="43"/>
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
       <c r="AA40" s="6"/>
@@ -2750,33 +2763,33 @@
       <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="78"/>
-      <c r="K41" s="78"/>
-      <c r="L41" s="78"/>
-      <c r="M41" s="78"/>
-      <c r="N41" s="78"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
       <c r="O41" s="6"/>
-      <c r="P41" s="48" t="s">
+      <c r="P41" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="Q41" s="48"/>
-      <c r="R41" s="48"/>
-      <c r="S41" s="48"/>
-      <c r="T41" s="48"/>
-      <c r="U41" s="48"/>
-      <c r="V41" s="48"/>
-      <c r="W41" s="79" t="s">
+      <c r="Q41" s="45"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="45"/>
+      <c r="T41" s="45"/>
+      <c r="U41" s="45"/>
+      <c r="V41" s="45"/>
+      <c r="W41" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="X41" s="79"/>
-      <c r="Y41" s="79"/>
+      <c r="X41" s="46"/>
+      <c r="Y41" s="46"/>
       <c r="Z41" s="6"/>
       <c r="AA41" s="6"/>
       <c r="AB41" s="6"/>
@@ -2788,38 +2801,38 @@
       <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
       <c r="O42" s="6"/>
-      <c r="P42" s="48" t="s">
+      <c r="P42" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="Q42" s="48"/>
-      <c r="R42" s="48"/>
-      <c r="S42" s="48"/>
-      <c r="T42" s="48"/>
-      <c r="U42" s="48"/>
-      <c r="V42" s="48"/>
-      <c r="W42" s="80" t="s">
+      <c r="Q42" s="45"/>
+      <c r="R42" s="45"/>
+      <c r="S42" s="45"/>
+      <c r="T42" s="45"/>
+      <c r="U42" s="45"/>
+      <c r="V42" s="45"/>
+      <c r="W42" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="X42" s="80"/>
-      <c r="Y42" s="80"/>
-      <c r="Z42" s="80"/>
-      <c r="AA42" s="80"/>
-      <c r="AB42" s="80"/>
+      <c r="X42" s="47"/>
+      <c r="Y42" s="47"/>
+      <c r="Z42" s="47"/>
+      <c r="AA42" s="47"/>
+      <c r="AB42" s="47"/>
       <c r="AC42" s="6"/>
       <c r="AD42" s="6"/>
       <c r="AE42" s="6"/>
@@ -2828,26 +2841,26 @@
       <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="C43" s="37" t="s">
+      <c r="C43" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
       <c r="O43" s="6"/>
-      <c r="P43" s="46"/>
-      <c r="Q43" s="46"/>
-      <c r="R43" s="46"/>
-      <c r="S43" s="46"/>
-      <c r="T43" s="46"/>
+      <c r="P43" s="71"/>
+      <c r="Q43" s="71"/>
+      <c r="R43" s="71"/>
+      <c r="S43" s="71"/>
+      <c r="T43" s="71"/>
       <c r="U43" s="6"/>
       <c r="X43" s="6"/>
       <c r="Y43" s="6"/>
@@ -2862,18 +2875,18 @@
       <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="72"/>
+      <c r="K44" s="72"/>
+      <c r="L44" s="72"/>
+      <c r="M44" s="72"/>
+      <c r="N44" s="72"/>
       <c r="AC44" s="6"/>
       <c r="AD44" s="6"/>
       <c r="AE44" s="6"/>
@@ -2882,35 +2895,35 @@
       <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="48"/>
-      <c r="M45" s="48"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="48"/>
-      <c r="P45" s="48"/>
-      <c r="Q45" s="48"/>
-      <c r="R45" s="48"/>
-      <c r="S45" s="48"/>
-      <c r="T45" s="48"/>
-      <c r="U45" s="48"/>
-      <c r="V45" s="48"/>
-      <c r="W45" s="48"/>
-      <c r="X45" s="48"/>
-      <c r="Y45" s="48"/>
-      <c r="Z45" s="48"/>
-      <c r="AA45" s="48"/>
-      <c r="AB45" s="48"/>
-      <c r="AC45" s="48"/>
-      <c r="AD45" s="48"/>
-      <c r="AE45" s="48"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="45"/>
+      <c r="O45" s="45"/>
+      <c r="P45" s="45"/>
+      <c r="Q45" s="45"/>
+      <c r="R45" s="45"/>
+      <c r="S45" s="45"/>
+      <c r="T45" s="45"/>
+      <c r="U45" s="45"/>
+      <c r="V45" s="45"/>
+      <c r="W45" s="45"/>
+      <c r="X45" s="45"/>
+      <c r="Y45" s="45"/>
+      <c r="Z45" s="45"/>
+      <c r="AA45" s="45"/>
+      <c r="AB45" s="45"/>
+      <c r="AC45" s="45"/>
+      <c r="AD45" s="45"/>
+      <c r="AE45" s="45"/>
     </row>
     <row r="46" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
@@ -2919,188 +2932,188 @@
       <c r="C46" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="49" t="s">
+      <c r="D46" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="49"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="49"/>
-      <c r="O46" s="49"/>
-      <c r="P46" s="49"/>
-      <c r="Q46" s="49"/>
-      <c r="R46" s="49"/>
-      <c r="S46" s="49"/>
-      <c r="T46" s="49"/>
-      <c r="U46" s="49"/>
-      <c r="V46" s="49"/>
-      <c r="W46" s="49"/>
-      <c r="X46" s="49"/>
-      <c r="Y46" s="49"/>
-      <c r="Z46" s="49"/>
-      <c r="AA46" s="49"/>
-      <c r="AB46" s="49"/>
-      <c r="AC46" s="49"/>
-      <c r="AD46" s="49"/>
-      <c r="AE46" s="49"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="73"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="73"/>
+      <c r="L46" s="73"/>
+      <c r="M46" s="73"/>
+      <c r="N46" s="73"/>
+      <c r="O46" s="73"/>
+      <c r="P46" s="73"/>
+      <c r="Q46" s="73"/>
+      <c r="R46" s="73"/>
+      <c r="S46" s="73"/>
+      <c r="T46" s="73"/>
+      <c r="U46" s="73"/>
+      <c r="V46" s="73"/>
+      <c r="W46" s="73"/>
+      <c r="X46" s="73"/>
+      <c r="Y46" s="73"/>
+      <c r="Z46" s="73"/>
+      <c r="AA46" s="73"/>
+      <c r="AB46" s="73"/>
+      <c r="AC46" s="73"/>
+      <c r="AD46" s="73"/>
+      <c r="AE46" s="73"/>
     </row>
     <row r="47" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D47" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="36"/>
-      <c r="O47" s="36"/>
-      <c r="P47" s="36"/>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="36"/>
-      <c r="S47" s="36"/>
-      <c r="T47" s="36"/>
-      <c r="U47" s="36"/>
-      <c r="V47" s="36"/>
-      <c r="W47" s="36"/>
-      <c r="X47" s="36"/>
-      <c r="Y47" s="36"/>
-      <c r="Z47" s="36"/>
-      <c r="AA47" s="36"/>
-      <c r="AB47" s="36"/>
-      <c r="AC47" s="36"/>
-      <c r="AD47" s="36"/>
-      <c r="AE47" s="36"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="38"/>
+      <c r="P47" s="38"/>
+      <c r="Q47" s="38"/>
+      <c r="R47" s="38"/>
+      <c r="S47" s="38"/>
+      <c r="T47" s="38"/>
+      <c r="U47" s="38"/>
+      <c r="V47" s="38"/>
+      <c r="W47" s="38"/>
+      <c r="X47" s="38"/>
+      <c r="Y47" s="38"/>
+      <c r="Z47" s="38"/>
+      <c r="AA47" s="38"/>
+      <c r="AB47" s="38"/>
+      <c r="AC47" s="38"/>
+      <c r="AD47" s="38"/>
+      <c r="AE47" s="38"/>
     </row>
     <row r="48" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D48" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="36"/>
-      <c r="N48" s="36"/>
-      <c r="O48" s="36"/>
-      <c r="P48" s="36"/>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="36"/>
-      <c r="S48" s="36"/>
-      <c r="T48" s="36"/>
-      <c r="U48" s="36"/>
-      <c r="V48" s="36"/>
-      <c r="W48" s="36"/>
-      <c r="X48" s="36"/>
-      <c r="Y48" s="36"/>
-      <c r="Z48" s="36"/>
-      <c r="AA48" s="36"/>
-      <c r="AB48" s="36"/>
-      <c r="AC48" s="36"/>
-      <c r="AD48" s="36"/>
-      <c r="AE48" s="36"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="38"/>
+      <c r="P48" s="38"/>
+      <c r="Q48" s="38"/>
+      <c r="R48" s="38"/>
+      <c r="S48" s="38"/>
+      <c r="T48" s="38"/>
+      <c r="U48" s="38"/>
+      <c r="V48" s="38"/>
+      <c r="W48" s="38"/>
+      <c r="X48" s="38"/>
+      <c r="Y48" s="38"/>
+      <c r="Z48" s="38"/>
+      <c r="AA48" s="38"/>
+      <c r="AB48" s="38"/>
+      <c r="AC48" s="38"/>
+      <c r="AD48" s="38"/>
+      <c r="AE48" s="38"/>
     </row>
     <row r="49" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>48</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D49" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
-      <c r="N49" s="36"/>
-      <c r="O49" s="36"/>
-      <c r="P49" s="36"/>
-      <c r="Q49" s="36"/>
-      <c r="R49" s="36"/>
-      <c r="S49" s="36"/>
-      <c r="T49" s="36"/>
-      <c r="U49" s="36"/>
-      <c r="V49" s="36"/>
-      <c r="W49" s="36"/>
-      <c r="X49" s="36"/>
-      <c r="Y49" s="36"/>
-      <c r="Z49" s="36"/>
-      <c r="AA49" s="36"/>
-      <c r="AB49" s="36"/>
-      <c r="AC49" s="36"/>
-      <c r="AD49" s="36"/>
-      <c r="AE49" s="36"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="38"/>
+      <c r="P49" s="38"/>
+      <c r="Q49" s="38"/>
+      <c r="R49" s="38"/>
+      <c r="S49" s="38"/>
+      <c r="T49" s="38"/>
+      <c r="U49" s="38"/>
+      <c r="V49" s="38"/>
+      <c r="W49" s="38"/>
+      <c r="X49" s="38"/>
+      <c r="Y49" s="38"/>
+      <c r="Z49" s="38"/>
+      <c r="AA49" s="38"/>
+      <c r="AB49" s="38"/>
+      <c r="AC49" s="38"/>
+      <c r="AD49" s="38"/>
+      <c r="AE49" s="38"/>
     </row>
     <row r="50" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>49</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D50" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="36"/>
-      <c r="N50" s="36"/>
-      <c r="O50" s="36"/>
-      <c r="P50" s="36"/>
-      <c r="Q50" s="36"/>
-      <c r="R50" s="36"/>
-      <c r="S50" s="36"/>
-      <c r="T50" s="36"/>
-      <c r="U50" s="36"/>
-      <c r="V50" s="36"/>
-      <c r="W50" s="36"/>
-      <c r="X50" s="36"/>
-      <c r="Y50" s="36"/>
-      <c r="Z50" s="36"/>
-      <c r="AA50" s="36"/>
-      <c r="AB50" s="36"/>
-      <c r="AC50" s="36"/>
-      <c r="AD50" s="36"/>
-      <c r="AE50" s="36"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="38"/>
+      <c r="Q50" s="38"/>
+      <c r="R50" s="38"/>
+      <c r="S50" s="38"/>
+      <c r="T50" s="38"/>
+      <c r="U50" s="38"/>
+      <c r="V50" s="38"/>
+      <c r="W50" s="38"/>
+      <c r="X50" s="38"/>
+      <c r="Y50" s="38"/>
+      <c r="Z50" s="38"/>
+      <c r="AA50" s="38"/>
+      <c r="AB50" s="38"/>
+      <c r="AC50" s="38"/>
+      <c r="AD50" s="38"/>
+      <c r="AE50" s="38"/>
     </row>
     <row r="51" spans="1:31" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
@@ -3115,26 +3128,26 @@
       <c r="C52" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D52" s="37" t="s">
+      <c r="D52" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="37"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="39"/>
       <c r="O52" s="6"/>
-      <c r="P52" s="38" t="s">
+      <c r="P52" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="Q52" s="38"/>
-      <c r="R52" s="38"/>
-      <c r="S52" s="38"/>
+      <c r="Q52" s="78"/>
+      <c r="R52" s="78"/>
+      <c r="S52" s="78"/>
       <c r="T52" s="6"/>
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
@@ -3155,40 +3168,40 @@
       <c r="C53" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="D53" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="35"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="77"/>
+      <c r="H53" s="77"/>
+      <c r="I53" s="77"/>
+      <c r="J53" s="77"/>
+      <c r="K53" s="77"/>
+      <c r="L53" s="77"/>
+      <c r="M53" s="77"/>
+      <c r="N53" s="77"/>
       <c r="O53" s="6"/>
-      <c r="P53" s="39" t="s">
+      <c r="P53" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="Q53" s="39"/>
-      <c r="R53" s="39"/>
-      <c r="S53" s="39"/>
-      <c r="T53" s="39"/>
-      <c r="U53" s="39"/>
-      <c r="V53" s="39"/>
-      <c r="W53" s="39"/>
-      <c r="X53" s="40"/>
-      <c r="Y53" s="40"/>
-      <c r="Z53" s="41" t="s">
+      <c r="Q53" s="79"/>
+      <c r="R53" s="79"/>
+      <c r="S53" s="79"/>
+      <c r="T53" s="79"/>
+      <c r="U53" s="79"/>
+      <c r="V53" s="79"/>
+      <c r="W53" s="79"/>
+      <c r="X53" s="80"/>
+      <c r="Y53" s="80"/>
+      <c r="Z53" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="AA53" s="41"/>
-      <c r="AB53" s="41"/>
-      <c r="AC53" s="41"/>
-      <c r="AD53" s="41"/>
-      <c r="AE53" s="41"/>
+      <c r="AA53" s="48"/>
+      <c r="AB53" s="48"/>
+      <c r="AC53" s="48"/>
+      <c r="AD53" s="48"/>
+      <c r="AE53" s="48"/>
     </row>
     <row r="54" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
@@ -3197,35 +3210,35 @@
       <c r="C54" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D54" s="42" t="s">
+      <c r="D54" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="42"/>
-      <c r="L54" s="42"/>
-      <c r="M54" s="42"/>
-      <c r="N54" s="42"/>
-      <c r="P54" s="39"/>
-      <c r="Q54" s="39"/>
-      <c r="R54" s="39"/>
-      <c r="S54" s="39"/>
-      <c r="T54" s="39"/>
-      <c r="U54" s="39"/>
-      <c r="V54" s="39"/>
-      <c r="W54" s="39"/>
-      <c r="X54" s="40"/>
-      <c r="Y54" s="40"/>
-      <c r="Z54" s="41"/>
-      <c r="AA54" s="41"/>
-      <c r="AB54" s="41"/>
-      <c r="AC54" s="41"/>
-      <c r="AD54" s="41"/>
-      <c r="AE54" s="41"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
+      <c r="P54" s="79"/>
+      <c r="Q54" s="79"/>
+      <c r="R54" s="79"/>
+      <c r="S54" s="79"/>
+      <c r="T54" s="79"/>
+      <c r="U54" s="79"/>
+      <c r="V54" s="79"/>
+      <c r="W54" s="79"/>
+      <c r="X54" s="80"/>
+      <c r="Y54" s="80"/>
+      <c r="Z54" s="48"/>
+      <c r="AA54" s="48"/>
+      <c r="AB54" s="48"/>
+      <c r="AC54" s="48"/>
+      <c r="AD54" s="48"/>
+      <c r="AE54" s="48"/>
     </row>
     <row r="55" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
@@ -3234,39 +3247,39 @@
       <c r="C55" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D55" s="42" t="s">
+      <c r="D55" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="42"/>
-      <c r="L55" s="42"/>
-      <c r="M55" s="42"/>
-      <c r="N55" s="42"/>
-      <c r="P55" s="43" t="s">
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="35"/>
+      <c r="P55" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="Q55" s="43"/>
-      <c r="R55" s="43"/>
-      <c r="S55" s="43"/>
-      <c r="T55" s="43"/>
-      <c r="U55" s="43"/>
-      <c r="V55" s="43"/>
-      <c r="W55" s="43"/>
-      <c r="X55" s="44"/>
-      <c r="Y55" s="44"/>
-      <c r="Z55" s="45" t="s">
+      <c r="Q55" s="74"/>
+      <c r="R55" s="74"/>
+      <c r="S55" s="74"/>
+      <c r="T55" s="74"/>
+      <c r="U55" s="74"/>
+      <c r="V55" s="74"/>
+      <c r="W55" s="74"/>
+      <c r="X55" s="75"/>
+      <c r="Y55" s="75"/>
+      <c r="Z55" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="AA55" s="45"/>
-      <c r="AB55" s="45"/>
-      <c r="AC55" s="45"/>
-      <c r="AD55" s="45"/>
-      <c r="AE55" s="45"/>
+      <c r="AA55" s="76"/>
+      <c r="AB55" s="76"/>
+      <c r="AC55" s="76"/>
+      <c r="AD55" s="76"/>
+      <c r="AE55" s="76"/>
     </row>
     <row r="56" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
@@ -3275,35 +3288,35 @@
       <c r="C56" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D56" s="42" t="s">
+      <c r="D56" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="E56" s="42"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="42"/>
-      <c r="L56" s="42"/>
-      <c r="M56" s="42"/>
-      <c r="N56" s="42"/>
-      <c r="P56" s="43"/>
-      <c r="Q56" s="43"/>
-      <c r="R56" s="43"/>
-      <c r="S56" s="43"/>
-      <c r="T56" s="43"/>
-      <c r="U56" s="43"/>
-      <c r="V56" s="43"/>
-      <c r="W56" s="43"/>
-      <c r="X56" s="44"/>
-      <c r="Y56" s="44"/>
-      <c r="Z56" s="45"/>
-      <c r="AA56" s="45"/>
-      <c r="AB56" s="45"/>
-      <c r="AC56" s="45"/>
-      <c r="AD56" s="45"/>
-      <c r="AE56" s="45"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="35"/>
+      <c r="P56" s="74"/>
+      <c r="Q56" s="74"/>
+      <c r="R56" s="74"/>
+      <c r="S56" s="74"/>
+      <c r="T56" s="74"/>
+      <c r="U56" s="74"/>
+      <c r="V56" s="74"/>
+      <c r="W56" s="74"/>
+      <c r="X56" s="75"/>
+      <c r="Y56" s="75"/>
+      <c r="Z56" s="76"/>
+      <c r="AA56" s="76"/>
+      <c r="AB56" s="76"/>
+      <c r="AC56" s="76"/>
+      <c r="AD56" s="76"/>
+      <c r="AE56" s="76"/>
     </row>
     <row r="57" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
@@ -3312,64 +3325,129 @@
       <c r="C57" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="42" t="s">
+      <c r="D57" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="E57" s="42"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="42"/>
-      <c r="L57" s="42"/>
-      <c r="M57" s="42"/>
-      <c r="N57" s="42"/>
-      <c r="P57" s="43" t="s">
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="35"/>
+      <c r="P57" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="Q57" s="43"/>
-      <c r="R57" s="43"/>
-      <c r="S57" s="43"/>
-      <c r="T57" s="43"/>
-      <c r="U57" s="43"/>
-      <c r="V57" s="43"/>
-      <c r="W57" s="43"/>
-      <c r="X57" s="44"/>
-      <c r="Y57" s="44"/>
-      <c r="Z57" s="45" t="s">
+      <c r="Q57" s="74"/>
+      <c r="R57" s="74"/>
+      <c r="S57" s="74"/>
+      <c r="T57" s="74"/>
+      <c r="U57" s="74"/>
+      <c r="V57" s="74"/>
+      <c r="W57" s="74"/>
+      <c r="X57" s="75"/>
+      <c r="Y57" s="75"/>
+      <c r="Z57" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="AA57" s="45"/>
-      <c r="AB57" s="45"/>
-      <c r="AC57" s="45"/>
-      <c r="AD57" s="45"/>
-      <c r="AE57" s="45"/>
+      <c r="AA57" s="76"/>
+      <c r="AB57" s="76"/>
+      <c r="AC57" s="76"/>
+      <c r="AD57" s="76"/>
+      <c r="AE57" s="76"/>
     </row>
     <row r="58" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="P58" s="43"/>
-      <c r="Q58" s="43"/>
-      <c r="R58" s="43"/>
-      <c r="S58" s="43"/>
-      <c r="T58" s="43"/>
-      <c r="U58" s="43"/>
-      <c r="V58" s="43"/>
-      <c r="W58" s="43"/>
-      <c r="X58" s="44"/>
-      <c r="Y58" s="44"/>
-      <c r="Z58" s="45"/>
-      <c r="AA58" s="45"/>
-      <c r="AB58" s="45"/>
-      <c r="AC58" s="45"/>
-      <c r="AD58" s="45"/>
-      <c r="AE58" s="45"/>
+      <c r="P58" s="74"/>
+      <c r="Q58" s="74"/>
+      <c r="R58" s="74"/>
+      <c r="S58" s="74"/>
+      <c r="T58" s="74"/>
+      <c r="U58" s="74"/>
+      <c r="V58" s="74"/>
+      <c r="W58" s="74"/>
+      <c r="X58" s="75"/>
+      <c r="Y58" s="75"/>
+      <c r="Z58" s="76"/>
+      <c r="AA58" s="76"/>
+      <c r="AB58" s="76"/>
+      <c r="AC58" s="76"/>
+      <c r="AD58" s="76"/>
+      <c r="AE58" s="76"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="81">
+    <mergeCell ref="D53:N53"/>
+    <mergeCell ref="D49:AE49"/>
+    <mergeCell ref="D48:AE48"/>
+    <mergeCell ref="D50:AE50"/>
+    <mergeCell ref="D52:N52"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="P53:W54"/>
+    <mergeCell ref="X53:Y54"/>
+    <mergeCell ref="Z53:AE54"/>
+    <mergeCell ref="D54:N54"/>
+    <mergeCell ref="P55:W56"/>
+    <mergeCell ref="X55:Y56"/>
+    <mergeCell ref="Z55:AE56"/>
+    <mergeCell ref="P57:W58"/>
+    <mergeCell ref="X57:Y58"/>
+    <mergeCell ref="Z57:AE58"/>
+    <mergeCell ref="C43:N43"/>
+    <mergeCell ref="P43:T43"/>
+    <mergeCell ref="C44:N44"/>
+    <mergeCell ref="C45:AE45"/>
+    <mergeCell ref="D46:AE46"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="K3:K10"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="D12:AD12"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="T14:AE14"/>
+    <mergeCell ref="T15:AE15"/>
+    <mergeCell ref="Y17:AE17"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="T19:AE19"/>
+    <mergeCell ref="F20:Z20"/>
+    <mergeCell ref="D21:AD21"/>
+    <mergeCell ref="U22:AC22"/>
+    <mergeCell ref="L23:S23"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="AA23:AE23"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="U24:AC24"/>
+    <mergeCell ref="H25:X25"/>
+    <mergeCell ref="H27:X27"/>
+    <mergeCell ref="D29:AC29"/>
+    <mergeCell ref="D30:AE30"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="D32:AE32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="D34:AE34"/>
+    <mergeCell ref="C35:F35"/>
     <mergeCell ref="D55:N55"/>
     <mergeCell ref="D56:N56"/>
     <mergeCell ref="D57:N57"/>
@@ -3386,71 +3464,6 @@
     <mergeCell ref="W41:Y41"/>
     <mergeCell ref="P42:V42"/>
     <mergeCell ref="W42:AB42"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="D32:AE32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="D34:AE34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="U24:AC24"/>
-    <mergeCell ref="H25:X25"/>
-    <mergeCell ref="H27:X27"/>
-    <mergeCell ref="D29:AC29"/>
-    <mergeCell ref="D30:AE30"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="T19:AE19"/>
-    <mergeCell ref="F20:Z20"/>
-    <mergeCell ref="D21:AD21"/>
-    <mergeCell ref="U22:AC22"/>
-    <mergeCell ref="L23:S23"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="AA23:AE23"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="D12:AD12"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="T14:AE14"/>
-    <mergeCell ref="T15:AE15"/>
-    <mergeCell ref="Y17:AE17"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="K3:K10"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C43:N43"/>
-    <mergeCell ref="P43:T43"/>
-    <mergeCell ref="C44:N44"/>
-    <mergeCell ref="C45:AE45"/>
-    <mergeCell ref="D46:AE46"/>
-    <mergeCell ref="P55:W56"/>
-    <mergeCell ref="X55:Y56"/>
-    <mergeCell ref="Z55:AE56"/>
-    <mergeCell ref="P57:W58"/>
-    <mergeCell ref="X57:Y58"/>
-    <mergeCell ref="Z57:AE58"/>
-    <mergeCell ref="D53:N53"/>
-    <mergeCell ref="D49:AE49"/>
-    <mergeCell ref="D48:AE48"/>
-    <mergeCell ref="D50:AE50"/>
-    <mergeCell ref="D52:N52"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="P53:W54"/>
-    <mergeCell ref="X53:Y54"/>
-    <mergeCell ref="Z53:AE54"/>
-    <mergeCell ref="D54:N54"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.2" bottom="0.1" header="6.6666669999999997E-2" footer="0"/>
@@ -3814,7 +3827,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="C11" sqref="C11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3825,161 +3838,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
     </row>
     <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
-      <c r="B3" s="93" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
+      <c r="B3" s="99" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="103"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="102" t="s">
+      <c r="A4" s="96"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="102"/>
+      <c r="D4" s="93"/>
     </row>
     <row r="5" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
-      <c r="B5" s="94" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
+      <c r="B5" s="100" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
     </row>
     <row r="6" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="103"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="102" t="s">
+      <c r="A6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="102"/>
+      <c r="D6" s="93"/>
     </row>
     <row r="7" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
-      <c r="B7" s="95" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
+      <c r="B7" s="101" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
     </row>
     <row r="8" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="103"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="102" t="s">
+      <c r="A8" s="96"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="102"/>
+      <c r="D8" s="93"/>
     </row>
     <row r="9" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="102" t="s">
+      <c r="A9" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
     </row>
     <row r="10" spans="1:4" s="17" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="32"/>
-      <c r="B10" s="96" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
+      <c r="B10" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
     </row>
     <row r="11" spans="1:4" s="17" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="103"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="102" t="s">
+      <c r="A11" s="96"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="102"/>
+      <c r="D11" s="93"/>
     </row>
     <row r="12" spans="1:4" s="17" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="32"/>
-      <c r="B12" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
+      <c r="B12" s="103" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
     </row>
     <row r="13" spans="1:4" s="17" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="103"/>
-      <c r="B13" s="103"/>
-      <c r="C13" s="102" t="s">
+      <c r="A13" s="96"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="102"/>
+      <c r="D13" s="93"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
     </row>
     <row r="15" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+    </row>
+    <row r="16" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="96"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="93"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-    </row>
-    <row r="16" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="103"/>
-      <c r="B16" s="103"/>
-      <c r="C16" s="102" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="102"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="99" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="34"/>
-      <c r="B18" s="99" t="s">
+      <c r="B18" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="94"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="100"/>
-      <c r="B19" s="100"/>
-      <c r="C19" s="99" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="99"/>
+      <c r="D19" s="98"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="100"/>
-      <c r="B20" s="100"/>
-      <c r="C20" s="100"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
       <c r="D20" s="33" t="s">
         <v>63</v>
       </c>
@@ -3987,6 +4000,17 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="27">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A1:D1"/>
@@ -4003,17 +4027,6 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <pageMargins left="0.1" right="0.1" top="0.2" bottom="0.1" header="6.6666669999999997E-2" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" errors="blank"/>
@@ -4027,8 +4040,8 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4065,7 +4078,7 @@
         <v>72</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -4079,7 +4092,7 @@
         <v>74</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -4093,7 +4106,7 @@
         <v>83</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4107,7 +4120,7 @@
         <v>88</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -4121,7 +4134,7 @@
         <v>87</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -4135,7 +4148,7 @@
         <v>84</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -4149,7 +4162,7 @@
         <v>85</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
